--- a/documentation/error_handling_plan.xlsx
+++ b/documentation/error_handling_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/845436bcb376daac/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RTSanalytics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="82" documentId="8_{3E41920E-F8FA-43D9-A41F-F1E7EAD9615E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F749685E-DF36-4D33-A652-7861E5EBA7B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D72544B-9A74-498C-AF2E-4B8FC5A0077F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14910" yWindow="0" windowWidth="13995" windowHeight="15585" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20505" windowHeight="12945" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="85">
   <si>
     <t>File</t>
   </si>
@@ -110,9 +110,6 @@
 from the RaceBuild class</t>
   </si>
   <si>
-    <t>Will be caught in sc2_analyzer</t>
-  </si>
-  <si>
     <t>RaceBuilds.__init__()</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>catch error</t>
   </si>
   <si>
-    <t>catch and raise error</t>
-  </si>
-  <si>
     <t>sc2_analyzer.py</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Catches error in row 2</t>
   </si>
   <si>
-    <t>Error caught by row 6</t>
-  </si>
-  <si>
     <t>Someone should win the game</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
   </si>
   <si>
     <t>Catches error in row 6</t>
-  </si>
-  <si>
-    <t>Catches error in row 4, error caught by row  9</t>
   </si>
   <si>
     <t>SC2Analyzer.winrate_race()</t>
@@ -306,6 +294,15 @@
   <si>
     <t>Incorrect game mode. Ignoring replay
 replay…</t>
+  </si>
+  <si>
+    <t>Error caught by row 9</t>
+  </si>
+  <si>
+    <t>Error caught by row  9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No matching build found using resources </t>
   </si>
 </sst>
 </file>
@@ -321,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,6 +328,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -356,6 +365,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -373,10 +391,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -698,28 +712,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D084F35-09EF-4F5B-B0E7-BE4C51EA3C9B}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -757,7 +771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -785,15 +799,15 @@
       <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
+      <c r="J2" s="4"/>
+      <c r="K2" s="6">
+        <v>45382</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -821,26 +835,26 @@
       <c r="I3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="J3" s="4"/>
+      <c r="K3" s="6">
+        <v>45382</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -849,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -857,20 +871,20 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="J4" s="4"/>
+      <c r="K4" s="6">
+        <v>45382</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>41</v>
@@ -882,169 +896,169 @@
         <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6">
+        <v>45382</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="6">
+        <v>45382</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>57</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="6">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1">
+        <v>86</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="1">
-        <v>82</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>72</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>72</v>
@@ -1056,202 +1070,202 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>113</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C12" s="1">
         <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1">
         <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1">
         <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1">
         <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
@@ -1260,31 +1274,31 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
         <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -1293,178 +1307,178 @@
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1">
         <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1">
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1">
         <v>39</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1">
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1">
         <v>124</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="1" t="s">

--- a/documentation/error_handling_plan.xlsx
+++ b/documentation/error_handling_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59ABB0A2-C040-4C3B-AB4B-9B22FB0C5FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB555F-22BA-4FDD-A528-0284205759D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="0" windowWidth="14970" windowHeight="15585" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>File</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Weight should be a value between 0-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raise error </t>
   </si>
   <si>
     <t>Command __ weight of __ is not between 0-1</t>
@@ -368,7 +365,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -387,6 +384,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -400,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -415,6 +418,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D084F35-09EF-4F5B-B0E7-BE4C51EA3C9B}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +826,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>65</v>
@@ -840,7 +846,7 @@
       <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -851,7 +857,7 @@
         <v>58</v>
       </c>
       <c r="C3" s="1">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>62</v>
@@ -871,7 +877,7 @@
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="6"/>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -882,7 +888,7 @@
         <v>58</v>
       </c>
       <c r="C4" s="1">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>66</v>
@@ -902,7 +908,7 @@
       <c r="I4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -913,7 +919,7 @@
         <v>58</v>
       </c>
       <c r="C5" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>70</v>
@@ -933,7 +939,7 @@
       <c r="I5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -947,7 +953,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -964,7 +970,7 @@
       <c r="I6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
@@ -985,18 +991,18 @@
         <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1010,13 +1016,13 @@
         <v>99</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1076,13 +1082,13 @@
         <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1109,13 +1115,13 @@
         <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>12</v>
@@ -1139,13 +1145,13 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>12</v>
@@ -1163,19 +1169,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1">
         <v>101</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>12</v>
@@ -1193,19 +1199,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="1">
         <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>12</v>
@@ -1220,100 +1226,100 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C15" s="1">
         <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1">
         <v>36</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1">
         <v>58</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C18" s="1">
         <v>24</v>
@@ -1343,31 +1349,31 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="1">
         <v>49</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="1" t="s">
@@ -1427,7 +1433,7 @@
         <v>36</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="1" t="s">
@@ -1457,7 +1463,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="1" t="s">
@@ -1487,7 +1493,7 @@
         <v>36</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="1" t="s">

--- a/documentation/error_handling_plan.xlsx
+++ b/documentation/error_handling_plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\RTSanalytics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EB555F-22BA-4FDD-A528-0284205759D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDEAD6-9302-487A-AEB2-CF035451C474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
+    <workbookView xWindow="7973" yWindow="0" windowWidth="12630" windowHeight="13043" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -757,30 +757,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D084F35-09EF-4F5B-B0E7-BE4C51EA3C9B}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.1328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.73046875" style="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="1" customWidth="1"/>
     <col min="8" max="8" width="26" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="13.59765625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.59765625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>57</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>57</v>
       </c>
@@ -911,7 +911,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="J5" s="6"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="J7" s="6"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>87</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>87</v>
       </c>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>96</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -1380,7 +1380,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1413,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1440,7 +1446,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1470,7 +1479,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1500,7 +1512,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1545,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1560,7 +1578,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
@@ -1590,9 +1611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>48</v>
@@ -1623,9 +1644,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>48</v>
@@ -1654,41 +1675,6 @@
       <c r="J28" s="3"/>
       <c r="K28" s="1" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/error_handling_plan.xlsx
+++ b/documentation/error_handling_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C423197-01BE-4B95-81D5-982AFB056449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1C1B95-EE27-40C7-B9DA-906FA15BFCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="2145" windowWidth="11220" windowHeight="11295" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DB1A640-9907-4B89-8561-12BCDA8399FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D084F35-09EF-4F5B-B0E7-BE4C51EA3C9B}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
